--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,239 +390,301 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ReviewComments</t>
+          <t>%Fines/Embeddedness_score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Reach.Assessment.Data</t>
+          <t>ChannelStability_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Level.2.Survey.Data</t>
+          <t>Contaminants_score</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Level.2.Data.Prior.to.2000</t>
+          <t>Cover-Wood_score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Level.2.Survey.Data.Date</t>
+          <t>Flow-Scour_score</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Data.Gap</t>
+          <t>Flow-SummerBaseFlow_score</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Length..miles.</t>
+          <t>Food-FoodWebResources_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Length..meters.</t>
+          <t>Predation_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Assessment.Unit.Restoration.Priority.Category.Spring.Chinook</t>
+          <t>Riparian_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Assessment.Unit.Restoration.Priority.Category.Steelhead</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Shape__Length</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Reach_Name_UCSRB</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Data_Source</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Reach_ID_in_assessment</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>River</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Single_or_Multiple_Reaches</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Reach_start_river_miles</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Reach_end_river_miles</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Length_AvgWettedWidth_Meters</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Wetted_Width_less_than_5m</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>PFC_Pool_Freq_Code_1_2_3_bins_20ft_50ft</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>PFC_Channel_Width_BINS_5_10_15_20_25_50_75_100_feet</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>PFC_POOL_Freq_per_mile</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Species_Reaches</t>
+          <t>Temperature-Rearing_score</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Salmon 16-11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Salmon 16-6</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Salmon 16-9</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tonasket 16-2</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Okanogan</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Tonasket Creek</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tonasket Creek DS</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="M2">
-        <v>0.931624766229331</v>
-      </c>
-      <c r="N2">
-        <v>1499.30772639803</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Q2">
-        <v>2279.17146730139</v>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Tonasket Creek 02</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Y2">
-        <v>9.059531333000001</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2">
-        <v>25</v>
-      </c>
-      <c r="AC2">
-        <v>47</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,6 +435,11 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Temperature-AdultHolding_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Temperature-Rearing_score</t>
         </is>
       </c>
@@ -497,7 +502,12 @@
       <c r="O2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="Q2">
         <v>5</v>
       </c>
     </row>
@@ -562,6 +572,11 @@
       <c r="P3">
         <v>5</v>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -621,7 +636,12 @@
       <c r="O4">
         <v>5</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="Q4">
         <v>5</v>
       </c>
     </row>
@@ -685,6 +705,11 @@
       </c>
       <c r="P5">
         <v>5</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>%Fines/Embeddedness_score</t>
+          <t>BankStability_score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -400,19 +400,19 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Contaminants_score</t>
+          <t>Stability_Mean</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>CoarseSubstrate_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Cover-Wood_score</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Flow-Scour_score</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Flow-SummerBaseFlow_score</t>
@@ -420,27 +420,57 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Food-FoodWebResources_score</t>
+          <t>Off-Channel-Floodplain_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Predation_score</t>
+          <t>Off-Channel-Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Riparian_score</t>
+          <t>PoolQuantity&amp;Quality_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Temperature-AdultHolding_score</t>
+          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-Disturbance_score</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Riparian_Mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>Temperature-Rearing_score</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Sum</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Pct</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Score_Restoration</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>HQ_Score_Protection</t>
         </is>
       </c>
     </row>
@@ -457,12 +487,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -470,13 +495,8 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>5</v>
@@ -484,31 +504,29 @@
       <c r="I2">
         <v>5</v>
       </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>0.872302720070069</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -524,12 +542,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,13 +550,8 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -551,31 +559,29 @@
       <c r="I3">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
       <c r="K3">
         <v>5</v>
       </c>
       <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>3</v>
-      </c>
-      <c r="N3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>0.7830164640163568</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -591,12 +597,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Salmon Creek-Green Lake</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -604,13 +605,8 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -618,31 +614,29 @@
       <c r="I4">
         <v>5</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
       <c r="K4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="U4">
+        <v>0.7892917935080431</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -658,12 +652,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>Tonasket Creek</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -671,13 +660,8 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -685,31 +669,29 @@
       <c r="I5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
       <c r="K5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Inf</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -504,12 +504,18 @@
       <c r="I2">
         <v>5</v>
       </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
       <c r="Q2">
         <v>3</v>
       </c>
@@ -517,7 +523,7 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0.872302720070069</v>
@@ -559,12 +565,18 @@
       <c r="I3">
         <v>5</v>
       </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
       <c r="K3">
         <v>5</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -572,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0.7830164640163568</v>
@@ -614,12 +626,18 @@
       <c r="I4">
         <v>5</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -627,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0.7892917935080431</v>
@@ -669,12 +687,18 @@
       <c r="I5">
         <v>5</v>
       </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
       <c r="Q5">
         <v>3</v>
       </c>
@@ -682,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -515,6 +515,9 @@
       </c>
       <c r="M2">
         <v>5</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -577,6 +580,9 @@
       <c r="M3">
         <v>5</v>
       </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -638,6 +644,9 @@
       <c r="M4">
         <v>5</v>
       </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -697,6 +706,9 @@
         <v>3</v>
       </c>
       <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
       <c r="Q5">

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain_score</t>
+          <t>FloodplainConnectivity_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels_score</t>
+          <t>Off-Channel/Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -487,7 +487,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,12 +511,6 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="O2">
         <v>1</v>
       </c>
       <c r="Q2">
@@ -551,7 +545,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -576,12 +570,6 @@
       </c>
       <c r="L3">
         <v>1</v>
-      </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -615,7 +603,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Salmon Creek-Green Lake</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,12 +628,6 @@
       </c>
       <c r="L4">
         <v>1</v>
-      </c>
-      <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -679,7 +661,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tonasket Creek</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -703,13 +685,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>3</v>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -513,7 +513,10 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
       <c r="R2">
@@ -571,7 +574,10 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
       <c r="R3">
@@ -629,7 +635,10 @@
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="P4">
         <v>1</v>
       </c>
       <c r="R4">
@@ -685,9 +694,12 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="P5">
         <v>3</v>
       </c>
       <c r="R5">

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -537,12 +537,8 @@
       <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2" t="n">
         <v>5</v>
       </c>
@@ -597,18 +593,18 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K3"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3"/>
+      <c r="N3" t="n">
+        <v>5</v>
+      </c>
       <c r="O3"/>
       <c r="P3" t="n">
         <v>3</v>
@@ -656,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -667,7 +663,9 @@
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4"/>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
       <c r="O4"/>
       <c r="P4" t="n">
         <v>1</v>
@@ -715,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -726,7 +724,9 @@
       <c r="M5" t="n">
         <v>5</v>
       </c>
-      <c r="N5"/>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
       <c r="O5"/>
       <c r="P5" t="n">
         <v>1</v>
@@ -774,18 +774,18 @@
         <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K6"/>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6"/>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
       <c r="O6"/>
       <c r="P6" t="n">
         <v>3</v>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -538,7 +538,9 @@
         <v>5</v>
       </c>
       <c r="J2"/>
-      <c r="K2"/>
+      <c r="K2" t="n">
+        <v>3</v>
+      </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
@@ -546,7 +548,9 @@
         <v>5</v>
       </c>
       <c r="N2"/>
-      <c r="O2"/>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
@@ -605,7 +609,9 @@
       <c r="N3" t="n">
         <v>5</v>
       </c>
-      <c r="O3"/>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
@@ -666,7 +672,9 @@
       <c r="N4" t="n">
         <v>5</v>
       </c>
-      <c r="O4"/>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
@@ -727,7 +735,9 @@
       <c r="N5" t="n">
         <v>5</v>
       </c>
-      <c r="O5"/>
+      <c r="O5" t="n">
+        <v>5</v>
+      </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
@@ -786,7 +796,9 @@
       <c r="N6" t="n">
         <v>3</v>
       </c>
-      <c r="O6"/>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
       <c r="P6" t="n">
         <v>3</v>
       </c>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -30,15 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bull.Trout.Reach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BankStability_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability_Mean</t>
   </si>
   <si>
     <t xml:space="preserve">CoarseSubstrate_score</t>
@@ -503,98 +494,80 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>5</v>
       </c>
-      <c r="J2"/>
-      <c r="K2" t="n">
-        <v>3</v>
-      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" t="n">
-        <v>5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M2"/>
       <c r="N2"/>
-      <c r="O2" t="n">
-        <v>1</v>
+      <c r="O2" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2"/>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>0.816498804419718</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2" t="n">
-        <v>0.816498804419718</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3</v>
-      </c>
-      <c r="W2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -603,220 +576,172 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3"/>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0.872302720070069</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3" t="n">
-        <v>0.872302720070069</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3</v>
-      </c>
-      <c r="W3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="n">
-        <v>3</v>
-      </c>
+      <c r="K4"/>
       <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
       </c>
       <c r="Q4"/>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0.783016464016357</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4" t="n">
-        <v>0.783016464016357</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="K5" t="n">
-        <v>3</v>
-      </c>
+      <c r="K5"/>
       <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5"/>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0.789291793508043</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5"/>
-      <c r="U5" t="n">
-        <v>0.789291793508043</v>
-      </c>
-      <c r="V5" t="n">
-        <v>5</v>
-      </c>
-      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6"/>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="T6"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W6" t="n">
+      <c r="T6" t="n">
         <v>5</v>
       </c>
     </row>
